--- a/assets/data/finishedprojects.xlsx
+++ b/assets/data/finishedprojects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\HTML CSS\My Website\NguyenNgocTriVi\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4F3C47-0E2D-4F5E-AFE8-DDC160279D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4990DF99-6704-4B46-A376-324A16C0FEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{CEF6D3BB-5B15-46B3-8D6A-E40E5F429659}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>No.</t>
   </si>
@@ -43,6 +43,24 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>Heart disease prediction with GUI</t>
+  </si>
+  <si>
+    <t>2023 - 2023</t>
+  </si>
+  <si>
+    <t>Coursework - Github</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>Face recognition with GUI</t>
+  </si>
+  <si>
+    <t>Image Processing with GUI</t>
   </si>
 </sst>
 </file>
@@ -53,20 +71,20 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="13"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -74,7 +92,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -82,7 +100,7 @@
       <u/>
       <sz val="13"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -479,24 +497,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD57F45-375A-4F26-B7F2-1EB23067C7A5}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="33.88671875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.8984375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="33.8984375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="22.3984375" style="4" customWidth="1"/>
     <col min="5" max="5" width="26" style="4" customWidth="1"/>
-    <col min="6" max="6" width="41.77734375" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="4" hidden="1"/>
+    <col min="6" max="6" width="41.796875" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="8.8984375" style="4" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,15 +534,64 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{67FE0513-178A-486B-B449-9E530A74F692}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{6C5E3434-7986-4007-88A2-704B0F75C3BE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/assets/data/finishedprojects.xlsx
+++ b/assets/data/finishedprojects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\HTML CSS\My Website\NguyenNgocTriVi\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4990DF99-6704-4B46-A376-324A16C0FEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053F9CAB-5375-491B-A77E-7AB08E634243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{CEF6D3BB-5B15-46B3-8D6A-E40E5F429659}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.8" x14ac:dyDescent="0.25"/>
@@ -547,7 +547,7 @@
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -590,8 +590,9 @@
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" xr:uid="{67FE0513-178A-486B-B449-9E530A74F692}"/>
     <hyperlink ref="F4" r:id="rId2" xr:uid="{6C5E3434-7986-4007-88A2-704B0F75C3BE}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{2A300494-DF80-441D-B7BE-2FF67F78D53E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/assets/data/finishedprojects.xlsx
+++ b/assets/data/finishedprojects.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\HTML CSS\My Website\NguyenNgocTriVi\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053F9CAB-5375-491B-A77E-7AB08E634243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB85B211-6146-4A60-A3FF-B7E379DA167D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{CEF6D3BB-5B15-46B3-8D6A-E40E5F429659}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Finished Projects" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>No.</t>
   </si>
@@ -45,64 +40,54 @@
     <t>Notes</t>
   </si>
   <si>
+    <t>Titanic</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>2023 - 2023</t>
+  </si>
+  <si>
+    <t>Face recognition with GUI</t>
+  </si>
+  <si>
+    <t>Coursework - Github</t>
+  </si>
+  <si>
     <t>Heart disease prediction with GUI</t>
   </si>
   <si>
-    <t>2023 - 2023</t>
-  </si>
-  <si>
-    <t>Coursework - Github</t>
-  </si>
-  <si>
-    <t>Developer</t>
-  </si>
-  <si>
-    <t>Face recognition with GUI</t>
-  </si>
-  <si>
     <t>Image Processing with GUI</t>
+  </si>
+  <si>
+    <t>Kaggle Competition - Github</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="13"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="13"/>
-      <color theme="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -113,7 +98,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -123,16 +108,16 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -140,55 +125,72 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -235,20 +237,20 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -276,31 +278,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -328,23 +313,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -356,243 +324,283 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD57F45-375A-4F26-B7F2-1EB23067C7A5}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.8984375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="33.8984375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.296875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="22.3984375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="26" style="4" customWidth="1"/>
-    <col min="6" max="6" width="41.796875" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="8.8984375" style="4" hidden="1"/>
+    <col min="1" max="1" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.88671875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>4</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="D4" s="8" t="s">
         <v>8</v>
       </c>
+      <c r="F4" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4" t="s">
+    <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="D5" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>8</v>
+      <c r="F5" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{67FE0513-178A-486B-B449-9E530A74F692}"/>
-    <hyperlink ref="F4" r:id="rId2" xr:uid="{6C5E3434-7986-4007-88A2-704B0F75C3BE}"/>
-    <hyperlink ref="F2" r:id="rId3" xr:uid="{2A300494-DF80-441D-B7BE-2FF67F78D53E}"/>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{14BCE322-4C84-4204-91F3-46C7B1E01D4E}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{8B7A8BE6-D53B-4639-B9CA-8C3C5B5E914B}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{797705AD-3C7B-4594-9477-ED85712A3338}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{BD39AF6D-CD9A-41F7-B197-8C881C964B48}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/assets/data/finishedprojects.xlsx
+++ b/assets/data/finishedprojects.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\HTML CSS\My Website\NguyenNgocTriVi\assets\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Github\nntrivi2001.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB85B211-6146-4A60-A3FF-B7E379DA167D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A856C01A-8346-4DDC-87E9-88B332BFCE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>No.</t>
   </si>
@@ -62,13 +62,16 @@
   </si>
   <si>
     <t>Kaggle Competition - Github</t>
+  </si>
+  <si>
+    <t>House prices prediction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,16 +81,25 @@
     </font>
     <font>
       <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="13"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -156,33 +168,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -490,117 +506,141 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.88671875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+    <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8">
+        <v>5</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8">
         <v>4</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+    <row r="4" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+    <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="E5" s="10"/>
+      <c r="F5" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+    <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="E6" s="10"/>
+      <c r="F6" s="11" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" xr:uid="{14BCE322-4C84-4204-91F3-46C7B1E01D4E}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{8B7A8BE6-D53B-4639-B9CA-8C3C5B5E914B}"/>
-    <hyperlink ref="F2" r:id="rId3" xr:uid="{797705AD-3C7B-4594-9477-ED85712A3338}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{BD39AF6D-CD9A-41F7-B197-8C881C964B48}"/>
+    <hyperlink ref="F5" r:id="rId1" xr:uid="{14BCE322-4C84-4204-91F3-46C7B1E01D4E}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{8B7A8BE6-D53B-4639-B9CA-8C3C5B5E914B}"/>
+    <hyperlink ref="F3" r:id="rId3" xr:uid="{797705AD-3C7B-4594-9477-ED85712A3338}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{BD39AF6D-CD9A-41F7-B197-8C881C964B48}"/>
+    <hyperlink ref="F2" r:id="rId5" xr:uid="{A58840C6-4612-47D3-909D-5DE96245C612}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/assets/data/finishedprojects.xlsx
+++ b/assets/data/finishedprojects.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Github\nntrivi2001.github.io\assets\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\HTML CSS\My Website\NguyenNgocTriVi\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A856C01A-8346-4DDC-87E9-88B332BFCE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9718A882-1189-42BB-B90E-88E40F2C9BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>No.</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>Duration</t>
-  </si>
-  <si>
-    <t>Funds</t>
   </si>
   <si>
     <t>Notes</t>
@@ -81,12 +78,13 @@
     </font>
     <font>
       <sz val="13"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -94,7 +92,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -168,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -176,29 +174,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -506,139 +500,131 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
         <v>5</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8">
+    <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="11" t="s">
-        <v>13</v>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8">
-        <v>4</v>
-      </c>
-      <c r="B3" s="9" t="s">
+    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11" t="s">
-        <v>13</v>
+      <c r="E5" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9" t="s">
+    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8">
-        <v>2</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
-        <v>1</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1" xr:uid="{14BCE322-4C84-4204-91F3-46C7B1E01D4E}"/>
-    <hyperlink ref="F4" r:id="rId2" xr:uid="{8B7A8BE6-D53B-4639-B9CA-8C3C5B5E914B}"/>
-    <hyperlink ref="F3" r:id="rId3" xr:uid="{797705AD-3C7B-4594-9477-ED85712A3338}"/>
-    <hyperlink ref="F6" r:id="rId4" xr:uid="{BD39AF6D-CD9A-41F7-B197-8C881C964B48}"/>
-    <hyperlink ref="F2" r:id="rId5" xr:uid="{A58840C6-4612-47D3-909D-5DE96245C612}"/>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{14BCE322-4C84-4204-91F3-46C7B1E01D4E}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{8B7A8BE6-D53B-4639-B9CA-8C3C5B5E914B}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{797705AD-3C7B-4594-9477-ED85712A3338}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{BD39AF6D-CD9A-41F7-B197-8C881C964B48}"/>
+    <hyperlink ref="E2" r:id="rId5" xr:uid="{A58840C6-4612-47D3-909D-5DE96245C612}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>

--- a/assets/data/finishedprojects.xlsx
+++ b/assets/data/finishedprojects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\HTML CSS\My Website\NguyenNgocTriVi\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9718A882-1189-42BB-B90E-88E40F2C9BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759D75FE-A18F-4989-A1ED-9FD13EE1FE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>No.</t>
   </si>
@@ -46,22 +46,25 @@
     <t>2023 - 2023</t>
   </si>
   <si>
-    <t>Face recognition with GUI</t>
-  </si>
-  <si>
     <t>Coursework - Github</t>
   </si>
   <si>
-    <t>Heart disease prediction with GUI</t>
-  </si>
-  <si>
-    <t>Image Processing with GUI</t>
-  </si>
-  <si>
     <t>Kaggle Competition - Github</t>
   </si>
   <si>
     <t>House prices prediction</t>
+  </si>
+  <si>
+    <t>Digit recognizer</t>
+  </si>
+  <si>
+    <t>Face recognition</t>
+  </si>
+  <si>
+    <t>Heart disease prediction</t>
+  </si>
+  <si>
+    <t>Image Processing GUI</t>
   </si>
 </sst>
 </file>
@@ -500,10 +503,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,27 +538,27 @@
     </row>
     <row r="2" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>4</v>
-      </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>6</v>
@@ -564,15 +567,15 @@
         <v>7</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -584,12 +587,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
@@ -598,15 +601,15 @@
         <v>7</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -615,18 +618,36 @@
         <v>7</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" xr:uid="{14BCE322-4C84-4204-91F3-46C7B1E01D4E}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{8B7A8BE6-D53B-4639-B9CA-8C3C5B5E914B}"/>
-    <hyperlink ref="E3" r:id="rId3" xr:uid="{797705AD-3C7B-4594-9477-ED85712A3338}"/>
-    <hyperlink ref="E6" r:id="rId4" xr:uid="{BD39AF6D-CD9A-41F7-B197-8C881C964B48}"/>
-    <hyperlink ref="E2" r:id="rId5" xr:uid="{A58840C6-4612-47D3-909D-5DE96245C612}"/>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{14BCE322-4C84-4204-91F3-46C7B1E01D4E}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{8B7A8BE6-D53B-4639-B9CA-8C3C5B5E914B}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{797705AD-3C7B-4594-9477-ED85712A3338}"/>
+    <hyperlink ref="E7" r:id="rId4" xr:uid="{BD39AF6D-CD9A-41F7-B197-8C881C964B48}"/>
+    <hyperlink ref="E3" r:id="rId5" xr:uid="{A58840C6-4612-47D3-909D-5DE96245C612}"/>
+    <hyperlink ref="E2" r:id="rId6" xr:uid="{E9497EB4-0EAE-4672-BA20-04F0DF4380A9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/assets/data/finishedprojects.xlsx
+++ b/assets/data/finishedprojects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\HTML CSS\My Website\NguyenNgocTriVi\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759D75FE-A18F-4989-A1ED-9FD13EE1FE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A6967D-E3D0-4591-9A4A-1A083B4C311B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
   <si>
     <t>No.</t>
   </si>
@@ -65,23 +65,29 @@
   </si>
   <si>
     <t>Image Processing GUI</t>
+  </si>
+  <si>
+    <t>Face Verification using Siamese Neural Network</t>
+  </si>
+  <si>
+    <t>Incomplete product detection using YOLOv8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Similarity calculation model for printed characters on bottles and plastic packaging
+</t>
+  </si>
+  <si>
+    <t>Internship project</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -98,6 +104,26 @@
       <b/>
       <sz val="13"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -166,10 +192,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -177,29 +204,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -503,10 +534,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -520,134 +551,186 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="8">
+        <v>9</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8">
+        <v>8</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
+        <v>7</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
+        <v>6</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="C5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="C6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="C7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+    <row r="8" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="C8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
+    <row r="9" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="C9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
+    <row r="10" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A10" s="8">
         <v>1</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="C10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1" xr:uid="{14BCE322-4C84-4204-91F3-46C7B1E01D4E}"/>
-    <hyperlink ref="E5" r:id="rId2" xr:uid="{8B7A8BE6-D53B-4639-B9CA-8C3C5B5E914B}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{797705AD-3C7B-4594-9477-ED85712A3338}"/>
-    <hyperlink ref="E7" r:id="rId4" xr:uid="{BD39AF6D-CD9A-41F7-B197-8C881C964B48}"/>
-    <hyperlink ref="E3" r:id="rId5" xr:uid="{A58840C6-4612-47D3-909D-5DE96245C612}"/>
-    <hyperlink ref="E2" r:id="rId6" xr:uid="{E9497EB4-0EAE-4672-BA20-04F0DF4380A9}"/>
+    <hyperlink ref="E9" r:id="rId1" xr:uid="{14BCE322-4C84-4204-91F3-46C7B1E01D4E}"/>
+    <hyperlink ref="E8" r:id="rId2" xr:uid="{8B7A8BE6-D53B-4639-B9CA-8C3C5B5E914B}"/>
+    <hyperlink ref="E7" r:id="rId3" xr:uid="{797705AD-3C7B-4594-9477-ED85712A3338}"/>
+    <hyperlink ref="E10" r:id="rId4" xr:uid="{BD39AF6D-CD9A-41F7-B197-8C881C964B48}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{A58840C6-4612-47D3-909D-5DE96245C612}"/>
+    <hyperlink ref="E5" r:id="rId6" xr:uid="{E9497EB4-0EAE-4672-BA20-04F0DF4380A9}"/>
+    <hyperlink ref="E2" r:id="rId7" xr:uid="{86A228A5-24C1-4373-9DC0-76CBAFA6C774}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/assets/data/finishedprojects.xlsx
+++ b/assets/data/finishedprojects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\HTML CSS\My Website\NguyenNgocTriVi\assets\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Github\nntrivi2001.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A6967D-E3D0-4591-9A4A-1A083B4C311B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F53B17-EF53-40AC-AEDC-BD6BC41CE341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,11 +73,10 @@
     <t>Incomplete product detection using YOLOv8</t>
   </si>
   <si>
-    <t xml:space="preserve">Similarity calculation model for printed characters on bottles and plastic packaging
-</t>
-  </si>
-  <si>
     <t>Internship project</t>
+  </si>
+  <si>
+    <t>Similarity estimation model for printed characters</t>
   </si>
 </sst>
 </file>
@@ -537,7 +536,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,7 +597,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -606,16 +605,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">

--- a/assets/data/finishedprojects.xlsx
+++ b/assets/data/finishedprojects.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Github\nntrivi2001.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F53B17-EF53-40AC-AEDC-BD6BC41CE341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF285052-5E0A-4442-AF72-148ABAAD46C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Finished Projects" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
   <si>
     <t>No.</t>
   </si>
@@ -77,6 +77,18 @@
   </si>
   <si>
     <t>Similarity estimation model for printed characters</t>
+  </si>
+  <si>
+    <t>Optimizing Traffic Lights Using Traffic Density</t>
+  </si>
+  <si>
+    <t>Researcher</t>
+  </si>
+  <si>
+    <t>Nozzle Quality Inspection</t>
+  </si>
+  <si>
+    <t>2024 - 2024</t>
   </si>
 </sst>
 </file>
@@ -533,10 +545,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -568,44 +580,45 @@
     </row>
     <row r="2" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
-        <v>9</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
+        <f>IF(COUNTA(B2:B12) - ROW() + 2 &gt; 0, COUNTA(B2:B12) - ROW() + 2,"")</f>
+        <v>11</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
-        <v>8</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="10" t="s">
+        <f>IF(COUNTA(B2:B12) - ROW() + 2 &gt; 0, COUNTA(B2:B12) - ROW() + 2,"")</f>
+        <v>10</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
-        <v>7</v>
+        <f>IF(COUNTA(B2:B12) - ROW() + 2 &gt; 0, COUNTA(B2:B12) - ROW() + 2,"")</f>
+        <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>6</v>
@@ -613,16 +626,17 @@
       <c r="D4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>17</v>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
-        <v>6</v>
+        <f>IF(COUNTA(B2:B12) - ROW() + 2 &gt; 0, COUNTA(B2:B12) - ROW() + 2,"")</f>
+        <v>8</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>6</v>
@@ -630,16 +644,17 @@
       <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>9</v>
+      <c r="E5" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
-        <v>5</v>
+        <f>IF(COUNTA(B2:B12) - ROW() + 2 &gt; 0, COUNTA(B2:B12) - ROW() + 2,"")</f>
+        <v>7</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>6</v>
@@ -647,16 +662,17 @@
       <c r="D6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>9</v>
+      <c r="E6" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
-        <v>4</v>
+        <f>IF(COUNTA(B2:B12) - ROW() + 2 &gt; 0, COUNTA(B2:B12) - ROW() + 2,"")</f>
+        <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>6</v>
@@ -670,10 +686,11 @@
     </row>
     <row r="8" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
-        <v>3</v>
+        <f>IF(COUNTA(B2:B12) - ROW() + 2 &gt; 0, COUNTA(B2:B12) - ROW() + 2,"")</f>
+        <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>6</v>
@@ -682,15 +699,16 @@
         <v>7</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
-        <v>2</v>
+        <f>IF(COUNTA(B2:B12) - ROW() + 2 &gt; 0, COUNTA(B2:B12) - ROW() + 2,"")</f>
+        <v>4</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>6</v>
@@ -699,15 +717,16 @@
         <v>7</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
-        <v>1</v>
+        <f>IF(COUNTA(B2:B12) - ROW() + 2 &gt; 0, COUNTA(B2:B12) - ROW() + 2,"")</f>
+        <v>3</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>6</v>
@@ -719,15 +738,51 @@
         <v>8</v>
       </c>
     </row>
+    <row r="11" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A11" s="8">
+        <f>IF(COUNTA(B2:B12) - ROW() + 2 &gt; 0, COUNTA(B2:B12) - ROW() + 2,"")</f>
+        <v>2</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A12" s="8">
+        <f>IF(COUNTA(B2:B12) - ROW() + 2 &gt; 0, COUNTA(B2:B12) - ROW() + 2,"")</f>
+        <v>1</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E9" r:id="rId1" xr:uid="{14BCE322-4C84-4204-91F3-46C7B1E01D4E}"/>
-    <hyperlink ref="E8" r:id="rId2" xr:uid="{8B7A8BE6-D53B-4639-B9CA-8C3C5B5E914B}"/>
-    <hyperlink ref="E7" r:id="rId3" xr:uid="{797705AD-3C7B-4594-9477-ED85712A3338}"/>
-    <hyperlink ref="E10" r:id="rId4" xr:uid="{BD39AF6D-CD9A-41F7-B197-8C881C964B48}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{A58840C6-4612-47D3-909D-5DE96245C612}"/>
-    <hyperlink ref="E5" r:id="rId6" xr:uid="{E9497EB4-0EAE-4672-BA20-04F0DF4380A9}"/>
-    <hyperlink ref="E2" r:id="rId7" xr:uid="{86A228A5-24C1-4373-9DC0-76CBAFA6C774}"/>
+    <hyperlink ref="E11" r:id="rId1" xr:uid="{14BCE322-4C84-4204-91F3-46C7B1E01D4E}"/>
+    <hyperlink ref="E10" r:id="rId2" xr:uid="{8B7A8BE6-D53B-4639-B9CA-8C3C5B5E914B}"/>
+    <hyperlink ref="E9" r:id="rId3" xr:uid="{797705AD-3C7B-4594-9477-ED85712A3338}"/>
+    <hyperlink ref="E12" r:id="rId4" xr:uid="{BD39AF6D-CD9A-41F7-B197-8C881C964B48}"/>
+    <hyperlink ref="E8" r:id="rId5" xr:uid="{A58840C6-4612-47D3-909D-5DE96245C612}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{E9497EB4-0EAE-4672-BA20-04F0DF4380A9}"/>
+    <hyperlink ref="E4" r:id="rId7" xr:uid="{86A228A5-24C1-4373-9DC0-76CBAFA6C774}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>

--- a/assets/data/finishedprojects.xlsx
+++ b/assets/data/finishedprojects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Github\nntrivi2001.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF285052-5E0A-4442-AF72-148ABAAD46C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6305B3-3B78-4862-BFFF-01F8A3EA3B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>No.</t>
   </si>
@@ -31,51 +31,21 @@
     <t>My role</t>
   </si>
   <si>
-    <t>Duration</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>Titanic</t>
-  </si>
-  <si>
     <t>Developer</t>
   </si>
   <si>
-    <t>2023 - 2023</t>
-  </si>
-  <si>
-    <t>Coursework - Github</t>
-  </si>
-  <si>
-    <t>Kaggle Competition - Github</t>
-  </si>
-  <si>
-    <t>House prices prediction</t>
-  </si>
-  <si>
-    <t>Digit recognizer</t>
-  </si>
-  <si>
     <t>Face recognition</t>
   </si>
   <si>
-    <t>Heart disease prediction</t>
-  </si>
-  <si>
-    <t>Image Processing GUI</t>
-  </si>
-  <si>
     <t>Face Verification using Siamese Neural Network</t>
   </si>
   <si>
     <t>Incomplete product detection using YOLOv8</t>
   </si>
   <si>
-    <t>Internship project</t>
-  </si>
-  <si>
     <t>Similarity estimation model for printed characters</t>
   </si>
   <si>
@@ -88,7 +58,7 @@
     <t>Nozzle Quality Inspection</t>
   </si>
   <si>
-    <t>2024 - 2024</t>
+    <t>Github</t>
   </si>
 </sst>
 </file>
@@ -545,10 +515,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,12 +526,11 @@
     <col min="1" max="1" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" hidden="1"/>
+    <col min="4" max="4" width="41.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -571,220 +540,98 @@
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8">
+        <f>IF(COUNTA(B2:B7) - ROW() + 2 &gt; 0, COUNTA(B2:B7) - ROW() + 2,"")</f>
+        <v>6</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8">
+        <f>IF(COUNTA(B2:B7) - ROW() + 2 &gt; 0, COUNTA(B2:B7) - ROW() + 2,"")</f>
+        <v>5</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="D3" s="8"/>
     </row>
-    <row r="2" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8">
-        <f>IF(COUNTA(B2:B12) - ROW() + 2 &gt; 0, COUNTA(B2:B12) - ROW() + 2,"")</f>
-        <v>11</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="8"/>
+    <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
+        <f>IF(COUNTA(B2:B7) - ROW() + 2 &gt; 0, COUNTA(B2:B7) - ROW() + 2,"")</f>
+        <v>4</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8">
-        <f>IF(COUNTA(B2:B12) - ROW() + 2 &gt; 0, COUNTA(B2:B12) - ROW() + 2,"")</f>
-        <v>10</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>17</v>
-      </c>
+    <row r="5" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
+        <f>IF(COUNTA(B2:B7) - ROW() + 2 &gt; 0, COUNTA(B2:B7) - ROW() + 2,"")</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="10"/>
     </row>
-    <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8">
-        <f>IF(COUNTA(B2:B12) - ROW() + 2 &gt; 0, COUNTA(B2:B12) - ROW() + 2,"")</f>
-        <v>9</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
+    <row r="6" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
+        <f>IF(COUNTA(B2:B7) - ROW() + 2 &gt; 0, COUNTA(B2:B7) - ROW() + 2,"")</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
+      <c r="C6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="10"/>
     </row>
-    <row r="5" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8">
-        <f>IF(COUNTA(B2:B12) - ROW() + 2 &gt; 0, COUNTA(B2:B12) - ROW() + 2,"")</f>
-        <v>8</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
-        <f>IF(COUNTA(B2:B12) - ROW() + 2 &gt; 0, COUNTA(B2:B12) - ROW() + 2,"")</f>
-        <v>7</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
-        <f>IF(COUNTA(B2:B12) - ROW() + 2 &gt; 0, COUNTA(B2:B12) - ROW() + 2,"")</f>
-        <v>6</v>
+        <f>IF(COUNTA(B2:B7) - ROW() + 2 &gt; 0, COUNTA(B2:B7) - ROW() + 2,"")</f>
+        <v>1</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A8" s="8">
-        <f>IF(COUNTA(B2:B12) - ROW() + 2 &gt; 0, COUNTA(B2:B12) - ROW() + 2,"")</f>
-        <v>5</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A9" s="8">
-        <f>IF(COUNTA(B2:B12) - ROW() + 2 &gt; 0, COUNTA(B2:B12) - ROW() + 2,"")</f>
         <v>4</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A10" s="8">
-        <f>IF(COUNTA(B2:B12) - ROW() + 2 &gt; 0, COUNTA(B2:B12) - ROW() + 2,"")</f>
-        <v>3</v>
-      </c>
-      <c r="B10" s="9" t="s">
+      <c r="D7" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A11" s="8">
-        <f>IF(COUNTA(B2:B12) - ROW() + 2 &gt; 0, COUNTA(B2:B12) - ROW() + 2,"")</f>
-        <v>2</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A12" s="8">
-        <f>IF(COUNTA(B2:B12) - ROW() + 2 &gt; 0, COUNTA(B2:B12) - ROW() + 2,"")</f>
-        <v>1</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E11" r:id="rId1" xr:uid="{14BCE322-4C84-4204-91F3-46C7B1E01D4E}"/>
-    <hyperlink ref="E10" r:id="rId2" xr:uid="{8B7A8BE6-D53B-4639-B9CA-8C3C5B5E914B}"/>
-    <hyperlink ref="E9" r:id="rId3" xr:uid="{797705AD-3C7B-4594-9477-ED85712A3338}"/>
-    <hyperlink ref="E12" r:id="rId4" xr:uid="{BD39AF6D-CD9A-41F7-B197-8C881C964B48}"/>
-    <hyperlink ref="E8" r:id="rId5" xr:uid="{A58840C6-4612-47D3-909D-5DE96245C612}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{E9497EB4-0EAE-4672-BA20-04F0DF4380A9}"/>
-    <hyperlink ref="E4" r:id="rId7" xr:uid="{86A228A5-24C1-4373-9DC0-76CBAFA6C774}"/>
+    <hyperlink ref="D7" r:id="rId1" display="Coursework - Github" xr:uid="{8B7A8BE6-D53B-4639-B9CA-8C3C5B5E914B}"/>
+    <hyperlink ref="D4" r:id="rId2" display="Coursework - Github" xr:uid="{86A228A5-24C1-4373-9DC0-76CBAFA6C774}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/assets/data/finishedprojects.xlsx
+++ b/assets/data/finishedprojects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Github\nntrivi2001.github.io\assets\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Github\nntrivi2001.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6305B3-3B78-4862-BFFF-01F8A3EA3B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CF5F7E-CB81-4BA8-8791-92F79B3CF804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>No.</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Github</t>
+  </si>
+  <si>
+    <t>Vehicle Counting using YOLOv10 and ByteTrack</t>
   </si>
 </sst>
 </file>
@@ -69,7 +72,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -77,7 +80,7 @@
       <u/>
       <sz val="13"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -85,7 +88,7 @@
       <b/>
       <sz val="13"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -93,7 +96,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -105,7 +108,7 @@
     </font>
     <font>
       <sz val="13"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -177,7 +180,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -207,6 +210,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -515,22 +521,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" hidden="1"/>
+    <col min="1" max="1" width="8.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.8984375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -546,65 +552,60 @@
     </row>
     <row r="2" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
-        <f>IF(COUNTA(B2:B7) - ROW() + 2 &gt; 0, COUNTA(B2:B7) - ROW() + 2,"")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
-        <f>IF(COUNTA(B2:B7) - ROW() + 2 &gt; 0, COUNTA(B2:B7) - ROW() + 2,"")</f>
+        <v>6</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
         <v>5</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8">
-        <f>IF(COUNTA(B2:B7) - ROW() + 2 &gt; 0, COUNTA(B2:B7) - ROW() + 2,"")</f>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B5" s="9" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8">
-        <f>IF(COUNTA(B2:B7) - ROW() + 2 &gt; 0, COUNTA(B2:B7) - ROW() + 2,"")</f>
-        <v>3</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>7</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
-        <f>IF(COUNTA(B2:B7) - ROW() + 2 &gt; 0, COUNTA(B2:B7) - ROW() + 2,"")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>4</v>
@@ -613,23 +614,34 @@
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
-        <f>IF(COUNTA(B2:B7) - ROW() + 2 &gt; 0, COUNTA(B2:B7) - ROW() + 2,"")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D7" r:id="rId1" display="Coursework - Github" xr:uid="{8B7A8BE6-D53B-4639-B9CA-8C3C5B5E914B}"/>
-    <hyperlink ref="D4" r:id="rId2" display="Coursework - Github" xr:uid="{86A228A5-24C1-4373-9DC0-76CBAFA6C774}"/>
+    <hyperlink ref="D8" r:id="rId1" display="Coursework - Github" xr:uid="{8B7A8BE6-D53B-4639-B9CA-8C3C5B5E914B}"/>
+    <hyperlink ref="D5" r:id="rId2" display="Coursework - Github" xr:uid="{86A228A5-24C1-4373-9DC0-76CBAFA6C774}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/assets/data/finishedprojects.xlsx
+++ b/assets/data/finishedprojects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Github\nntrivi2001.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CF5F7E-CB81-4BA8-8791-92F79B3CF804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C865993D-AF7E-4A5B-81C5-D01F4AAA9A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>No.</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>Vehicle Counting using YOLOv10 and ByteTrack</t>
+  </si>
+  <si>
+    <t>License Plate Recognition using YOLOv10</t>
   </si>
 </sst>
 </file>
@@ -521,10 +524,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -552,72 +555,72 @@
     </row>
     <row r="2" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
         <v>5</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
+    <row r="7" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B7" s="9" t="s">
         <v>7</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8">
-        <v>2</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>8</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>4</v>
@@ -626,22 +629,34 @@
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
         <v>1</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1" display="Coursework - Github" xr:uid="{8B7A8BE6-D53B-4639-B9CA-8C3C5B5E914B}"/>
-    <hyperlink ref="D5" r:id="rId2" display="Coursework - Github" xr:uid="{86A228A5-24C1-4373-9DC0-76CBAFA6C774}"/>
+    <hyperlink ref="D9" r:id="rId1" display="Coursework - Github" xr:uid="{8B7A8BE6-D53B-4639-B9CA-8C3C5B5E914B}"/>
+    <hyperlink ref="D6" r:id="rId2" display="Coursework - Github" xr:uid="{86A228A5-24C1-4373-9DC0-76CBAFA6C774}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
